--- a/data/main_evaluation.xlsx
+++ b/data/main_evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soennecken\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C43954-550C-4A6D-B18B-EC559C3C31A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C7B6BB-89B0-404A-9039-D019647B29E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pretest" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="timings" sheetId="4" r:id="rId4"/>
     <sheet name="mappings" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pretest!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">posttest!$A$1:$C$61</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>User</t>
   </si>
@@ -51,10 +55,82 @@
     <t>Correct</t>
   </si>
   <si>
-    <t>Incorrect</t>
-  </si>
-  <si>
-    <t>Unnecessary</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TestNr</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>34:05</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>32:00</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>46:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>10:30</t>
   </si>
   <si>
     <t>Recommendation</t>
@@ -64,91 +140,13 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>TestNr</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>18:50</t>
-  </si>
-  <si>
-    <t>18:20</t>
-  </si>
-  <si>
-    <t>20:15</t>
-  </si>
-  <si>
-    <t>17:50</t>
-  </si>
-  <si>
-    <t>20:45</t>
-  </si>
-  <si>
-    <t>34:05</t>
-  </si>
-  <si>
-    <t>21:20</t>
-  </si>
-  <si>
-    <t>32:00</t>
-  </si>
-  <si>
-    <t>14:15</t>
-  </si>
-  <si>
-    <t>17:05</t>
-  </si>
-  <si>
-    <t>46:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>9:30</t>
-  </si>
-  <si>
-    <t>12:20</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>16:20</t>
-  </si>
-  <si>
-    <t>12:45</t>
-  </si>
-  <si>
-    <t>17:41</t>
-  </si>
-  <si>
-    <t>16:55</t>
-  </si>
-  <si>
-    <t>11:40</t>
-  </si>
-  <si>
-    <t>10:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,18 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -496,14 +496,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -513,14 +507,8 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -530,14 +518,8 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -547,14 +529,8 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -564,14 +540,8 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -579,16 +549,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -598,14 +562,8 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -615,14 +573,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -632,14 +584,8 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -649,14 +595,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -664,16 +604,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -683,14 +617,8 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -700,14 +628,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -717,14 +639,8 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -734,14 +650,8 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -751,14 +661,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -768,14 +672,8 @@
       <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -785,14 +683,8 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -802,14 +694,8 @@
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -819,14 +705,8 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -836,14 +716,8 @@
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -853,14 +727,8 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -870,14 +738,8 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -887,14 +749,8 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -904,14 +760,8 @@
       <c r="C25">
         <v>9</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -921,14 +771,8 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -938,14 +782,8 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -955,14 +793,8 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -972,14 +804,8 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -989,14 +815,8 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>6</v>
       </c>
@@ -1006,14 +826,8 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>7</v>
       </c>
@@ -1023,14 +837,8 @@
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -1040,14 +848,8 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>7</v>
       </c>
@@ -1057,14 +859,8 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -1074,14 +870,8 @@
       <c r="C35">
         <v>9</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -1089,16 +879,10 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>8</v>
       </c>
@@ -1108,14 +892,8 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>8</v>
       </c>
@@ -1125,14 +903,8 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>8</v>
       </c>
@@ -1142,14 +914,8 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>8</v>
       </c>
@@ -1159,14 +925,8 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -1176,14 +936,8 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>9</v>
       </c>
@@ -1193,14 +947,8 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>9</v>
       </c>
@@ -1210,14 +958,8 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -1227,14 +969,8 @@
       <c r="C44">
         <v>6</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>9</v>
       </c>
@@ -1244,14 +980,8 @@
       <c r="C45">
         <v>8</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>9</v>
       </c>
@@ -1261,14 +991,8 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>10</v>
       </c>
@@ -1278,14 +1002,8 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>10</v>
       </c>
@@ -1295,14 +1013,8 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>10</v>
       </c>
@@ -1312,14 +1024,8 @@
       <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>10</v>
       </c>
@@ -1329,14 +1035,8 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -1346,14 +1046,8 @@
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>11</v>
       </c>
@@ -1363,14 +1057,8 @@
       <c r="C52">
         <v>6</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -1380,14 +1068,8 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>11</v>
       </c>
@@ -1397,14 +1079,8 @@
       <c r="C54">
         <v>6</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>11</v>
       </c>
@@ -1414,14 +1090,8 @@
       <c r="C55">
         <v>10</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>11</v>
       </c>
@@ -1431,14 +1101,8 @@
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>12</v>
       </c>
@@ -1448,14 +1112,8 @@
       <c r="C57">
         <v>4</v>
       </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>12</v>
       </c>
@@ -1465,14 +1123,8 @@
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>12</v>
       </c>
@@ -1482,14 +1134,8 @@
       <c r="C59">
         <v>6</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>12</v>
       </c>
@@ -1499,14 +1145,8 @@
       <c r="C60">
         <v>10</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>12</v>
       </c>
@@ -1516,32 +1156,27 @@
       <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1048576" spans="1:1">
       <c r="A1048576" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AC0FE7-6080-4F6F-966D-C38A541AD805}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1551,14 +1186,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1568,14 +1197,8 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1585,14 +1208,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1602,14 +1219,8 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1619,14 +1230,8 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1636,14 +1241,8 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1653,14 +1252,8 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1670,14 +1263,8 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1687,14 +1274,8 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1704,14 +1285,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -1721,14 +1296,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -1738,14 +1307,8 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1755,14 +1318,8 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -1772,14 +1329,8 @@
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -1789,14 +1340,8 @@
       <c r="C15">
         <v>9</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -1804,16 +1349,10 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -1823,14 +1362,8 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -1840,14 +1373,8 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -1857,14 +1384,8 @@
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -1874,14 +1395,8 @@
       <c r="C20">
         <v>7</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -1891,14 +1406,8 @@
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1908,14 +1417,8 @@
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -1925,14 +1428,8 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -1942,14 +1439,8 @@
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -1959,14 +1450,8 @@
       <c r="C25">
         <v>9</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -1974,16 +1459,10 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -1993,14 +1472,8 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -2010,14 +1483,8 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -2027,14 +1494,8 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -2044,14 +1505,8 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>6</v>
       </c>
@@ -2061,14 +1516,8 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>7</v>
       </c>
@@ -2078,14 +1527,8 @@
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -2095,14 +1538,8 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>7</v>
       </c>
@@ -2112,14 +1549,8 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -2129,14 +1560,8 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -2146,14 +1571,8 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>8</v>
       </c>
@@ -2163,14 +1582,8 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>8</v>
       </c>
@@ -2180,14 +1593,8 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>8</v>
       </c>
@@ -2197,14 +1604,8 @@
       <c r="C39">
         <v>6</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>8</v>
       </c>
@@ -2214,14 +1615,8 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -2229,16 +1624,10 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>9</v>
       </c>
@@ -2248,14 +1637,8 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>9</v>
       </c>
@@ -2265,14 +1648,8 @@
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -2282,14 +1659,8 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>9</v>
       </c>
@@ -2299,14 +1670,8 @@
       <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>9</v>
       </c>
@@ -2316,14 +1681,8 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>10</v>
       </c>
@@ -2333,14 +1692,8 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>10</v>
       </c>
@@ -2350,14 +1703,8 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>10</v>
       </c>
@@ -2367,14 +1714,8 @@
       <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>10</v>
       </c>
@@ -2384,14 +1725,8 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -2401,14 +1736,8 @@
       <c r="C51">
         <v>6</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>11</v>
       </c>
@@ -2418,14 +1747,8 @@
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -2435,14 +1758,8 @@
       <c r="C53">
         <v>3</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>11</v>
       </c>
@@ -2452,14 +1769,8 @@
       <c r="C54">
         <v>6</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>11</v>
       </c>
@@ -2469,14 +1780,8 @@
       <c r="C55">
         <v>10</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>11</v>
       </c>
@@ -2486,14 +1791,8 @@
       <c r="C56">
         <v>6</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>12</v>
       </c>
@@ -2503,14 +1802,8 @@
       <c r="C57">
         <v>7</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>12</v>
       </c>
@@ -2520,14 +1813,8 @@
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>12</v>
       </c>
@@ -2537,14 +1824,8 @@
       <c r="C59">
         <v>6</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>12</v>
       </c>
@@ -2554,14 +1835,8 @@
       <c r="C60">
         <v>6</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>12</v>
       </c>
@@ -2571,14 +1846,9 @@
       <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C61" xr:uid="{E1AC0FE7-6080-4F6F-966D-C38A541AD805}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2591,20 +1861,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2615,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2626,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2637,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2648,7 +1918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2659,7 +1929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2670,7 +1940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2681,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -2692,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -2703,7 +1973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2727,86 +1997,86 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2814,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2825,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2836,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2847,10 +2117,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2858,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2869,76 +2139,76 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -2946,10 +2216,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -2957,10 +2227,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -2968,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -2979,10 +2249,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -2990,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>12</v>
       </c>
@@ -3001,10 +2271,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -3022,113 +2292,113 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
